--- a/biology/Médecine/Lumiliximab/Lumiliximab.xlsx
+++ b/biology/Médecine/Lumiliximab/Lumiliximab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lumiliximab est un anticorps monoclonal G1k ciblant l'antigène de membrane CD23, récepteur de type II humain de l'immunoglobuline E exprimé à la surface de pratiquement tous les lymphocytes des leucémie lymphoïde chronique[1].
-Il s'agit d'un dimère du disulfure entre la chaîne γ1 et la chaîne κ de l'anticorps monoclonal chimérique Homo sapiens-Macaca irus[1].
-Le 25 mars 2009, le laboratoire Biogen Idec bénéficiait d'un essai de phase 2/3 du lumiliximab chez les patients atteints de leucémie lymphoïde chronique récidivante ou réfractaire aux traitements[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lumiliximab est un anticorps monoclonal G1k ciblant l'antigène de membrane CD23, récepteur de type II humain de l'immunoglobuline E exprimé à la surface de pratiquement tous les lymphocytes des leucémie lymphoïde chronique.
+Il s'agit d'un dimère du disulfure entre la chaîne γ1 et la chaîne κ de l'anticorps monoclonal chimérique Homo sapiens-Macaca irus.
+Le 25 mars 2009, le laboratoire Biogen Idec bénéficiait d'un essai de phase 2/3 du lumiliximab chez les patients atteints de leucémie lymphoïde chronique récidivante ou réfractaire aux traitements,.
 </t>
         </is>
       </c>
